--- a/Tests/files/momentum.xlsx
+++ b/Tests/files/momentum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ha\HypanceDataAnalysis\Tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDE823-F255-4F12-A8AC-183590BC7619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829F107D-4109-425F-85DB-4286037C63BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>cloeses_list</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
     <t>period</t>
+  </si>
+  <si>
+    <t>closes_list</t>
   </si>
 </sst>
 </file>
@@ -406,21 +406,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
